--- a/models/calculation engines/economic_overlay/outputs/depth_splits_sedimentary_bauxite/linear_eqn-depth_buckets_percent_tonnage_per_depth_range.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/depth_splits_sedimentary_bauxite/linear_eqn-depth_buckets_percent_tonnage_per_depth_range.xlsx
@@ -1248,7 +1248,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>

--- a/models/calculation engines/economic_overlay/outputs/depth_splits_sedimentary_bauxite/linear_eqn-depth_buckets_percent_tonnage_per_depth_range.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/depth_splits_sedimentary_bauxite/linear_eqn-depth_buckets_percent_tonnage_per_depth_range.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B162"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,16 @@
           <t>c</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>province</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>county</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -453,13 +463,33 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Annin</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Baode</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -469,6 +499,16 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Baofeng</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -477,13 +517,29 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Binyang</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Guinea</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CBG</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -493,6 +549,16 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Chencheng</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -501,6 +567,16 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Chengong</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -509,21 +585,39 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Chenxi</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fly Ash</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>China Total</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -533,6 +627,16 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Chongzuo</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -541,6 +645,16 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Daozhen</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -549,6 +663,16 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Debao</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -557,6 +681,16 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dengfeng</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -565,13 +699,33 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Donglan</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fangshan</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -581,6 +735,16 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fengdu</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -589,29 +753,65 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fengfeng</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fenxi</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fenyang</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fiji</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fiji</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -621,6 +821,16 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fugu</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -629,6 +839,16 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fumin</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -637,13 +857,29 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Fuquan</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -653,21 +889,47 @@
       <c r="B27" t="n">
         <v>0</v>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Gongyi</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Gove</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Gu</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -677,6 +939,16 @@
       <c r="B30" t="n">
         <v>0</v>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Guangnan</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -685,6 +957,16 @@
       <c r="B31" t="n">
         <v>0</v>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Guangyuan</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -693,6 +975,16 @@
       <c r="B32" t="n">
         <v>0</v>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Gudu</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -701,6 +993,16 @@
       <c r="B33" t="n">
         <v>0</v>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Guigang</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -709,29 +1011,61 @@
       <c r="B34" t="n">
         <v>0</v>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Guiyang</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Gujiao</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Guyana</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Guyana</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -741,6 +1075,16 @@
       <c r="B38" t="n">
         <v>0</v>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Hancheng</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -749,6 +1093,16 @@
       <c r="B39" t="n">
         <v>0</v>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Heng</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -757,21 +1111,51 @@
       <c r="B40" t="n">
         <v>0</v>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Heqing</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Hequ</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Heshun</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -781,13 +1165,33 @@
       <c r="B43" t="n">
         <v>0</v>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Hongta</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Huairen</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -797,6 +1201,16 @@
       <c r="B45" t="n">
         <v>0</v>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Huangping</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -805,21 +1219,51 @@
       <c r="B46" t="n">
         <v>0</v>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Hubin</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Huozhou</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Jiaokou</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -829,29 +1273,69 @@
       <c r="B49" t="n">
         <v>0</v>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Jiaxian</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Jiexiu</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Jincheng</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Jingle</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -861,6 +1345,16 @@
       <c r="B53" t="n">
         <v>0</v>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Jingxi</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -869,6 +1363,16 @@
       <c r="B54" t="n">
         <v>0</v>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Jingxing</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -877,6 +1381,16 @@
       <c r="B55" t="n">
         <v>0</v>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Jinnin</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -885,6 +1399,16 @@
       <c r="B56" t="n">
         <v>0</v>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Jinsha</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -893,6 +1417,16 @@
       <c r="B57" t="n">
         <v>0</v>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Jiyuan</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -901,6 +1435,16 @@
       <c r="B58" t="n">
         <v>0</v>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Kaili</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -909,6 +1453,16 @@
       <c r="B59" t="n">
         <v>0</v>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Kaiyang</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -917,21 +1471,51 @@
       <c r="B60" t="n">
         <v>0</v>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Laibin</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Lin</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Lingshi</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -941,13 +1525,33 @@
       <c r="B63" t="n">
         <v>0</v>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Lingyun</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Liulin</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -957,6 +1561,16 @@
       <c r="B65" t="n">
         <v>0</v>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Long'an</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -965,6 +1579,16 @@
       <c r="B66" t="n">
         <v>0</v>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Longli</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -973,13 +1597,33 @@
       <c r="B67" t="n">
         <v>0</v>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Longzhou</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Loufan</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -989,6 +1633,16 @@
       <c r="B69" t="n">
         <v>0</v>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Ludian</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -997,6 +1651,16 @@
       <c r="B70" t="n">
         <v>0</v>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Lushan</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1005,29 +1669,61 @@
       <c r="B71" t="n">
         <v>0</v>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Lushan</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Lvliang</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>MRN</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -1037,6 +1733,16 @@
       <c r="B75" t="n">
         <v>0</v>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Malipo</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1045,6 +1751,16 @@
       <c r="B76" t="n">
         <v>0</v>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Mashan</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1053,6 +1769,16 @@
       <c r="B77" t="n">
         <v>0</v>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Mianchi</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1061,6 +1787,16 @@
       <c r="B78" t="n">
         <v>0</v>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Miyi</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1069,6 +1805,16 @@
       <c r="B79" t="n">
         <v>0</v>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Nanchuan</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1077,6 +1823,16 @@
       <c r="B80" t="n">
         <v>0</v>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Napo</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1085,13 +1841,33 @@
       <c r="B81" t="n">
         <v>0</v>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Ningming</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Ningwu</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -1101,6 +1877,16 @@
       <c r="B83" t="n">
         <v>0</v>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1109,6 +1895,16 @@
       <c r="B84" t="n">
         <v>0</v>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1117,6 +1913,16 @@
       <c r="B85" t="n">
         <v>0</v>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1125,6 +1931,16 @@
       <c r="B86" t="n">
         <v>0</v>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1133,6 +1949,16 @@
       <c r="B87" t="n">
         <v>0</v>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1141,6 +1967,16 @@
       <c r="B88" t="n">
         <v>0</v>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1149,6 +1985,16 @@
       <c r="B89" t="n">
         <v>0</v>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1157,6 +2003,16 @@
       <c r="B90" t="n">
         <v>0</v>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1165,6 +2021,16 @@
       <c r="B91" t="n">
         <v>0</v>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1173,6 +2039,16 @@
       <c r="B92" t="n">
         <v>0</v>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1181,6 +2057,16 @@
       <c r="B93" t="n">
         <v>0</v>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1189,6 +2075,16 @@
       <c r="B94" t="n">
         <v>0</v>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1197,6 +2093,16 @@
       <c r="B95" t="n">
         <v>0</v>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1205,6 +2111,16 @@
       <c r="B96" t="n">
         <v>0</v>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1213,6 +2129,16 @@
       <c r="B97" t="n">
         <v>0</v>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1221,13 +2147,33 @@
       <c r="B98" t="n">
         <v>0</v>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -1237,6 +2183,16 @@
       <c r="B100" t="n">
         <v>0</v>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -1245,29 +2201,69 @@
       <c r="B101" t="n">
         <v>0</v>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Pingdingshan</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Pingguo</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -1277,53 +2273,123 @@
       <c r="B105" t="n">
         <v>0</v>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Pinglu</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Pingxiang</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Pucheng</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Qingshuihe</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Qingzhen</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Qinjiang</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Qinyang</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -1333,61 +2399,133 @@
       <c r="B112" t="n">
         <v>0</v>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Qinyuan</t>
+        </is>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0</v>
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Queensland</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Ruyang</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Ruzhou</t>
+        </is>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0</v>
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Guinea</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>SMB</t>
+        </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Sanmenxia</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Shaan</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Shanglin</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -1397,6 +2535,16 @@
       <c r="B120" t="n">
         <v>0</v>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Shenchi</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -1405,141 +2553,317 @@
       <c r="B121" t="n">
         <v>0</v>
       </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Shuozhou</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Songming</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Tai'an</t>
+        </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Tangshan</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Tian'e</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Tiandong</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Tianlin</t>
+        </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Tianquan</t>
+        </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Tianyang</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Tongchuan</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Tongzi</t>
+        </is>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0</v>
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Wenchang</t>
+        </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Weng'an</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Wenshan</t>
+        </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Wu'an</t>
+        </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Wuchuan</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Wulong</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -1549,6 +2873,16 @@
       <c r="B139" t="n">
         <v>0</v>
       </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Wutai</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -1557,29 +2891,69 @@
       <c r="B140" t="n">
         <v>0</v>
       </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Wuxiang</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Xia</t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Xiangyuan</t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Xiaoyi</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -1589,6 +2963,16 @@
       <c r="B144" t="n">
         <v>0</v>
       </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Xichou</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -1597,6 +2981,16 @@
       <c r="B145" t="n">
         <v>0</v>
       </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Xifeng</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -1605,13 +2999,33 @@
       <c r="B146" t="n">
         <v>0</v>
       </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Xin'an</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Xing</t>
+        </is>
       </c>
     </row>
     <row r="148">
@@ -1621,6 +3035,16 @@
       <c r="B148" t="n">
         <v>0</v>
       </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Xingyang</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -1629,6 +3053,16 @@
       <c r="B149" t="n">
         <v>0</v>
       </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Xinmi</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -1637,6 +3071,16 @@
       <c r="B150" t="n">
         <v>0</v>
       </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Xishan</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -1645,6 +3089,16 @@
       <c r="B151" t="n">
         <v>0</v>
       </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Xiuwen</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -1653,21 +3107,51 @@
       <c r="B152" t="n">
         <v>0</v>
       </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Xixiang</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Xiyang</t>
+        </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Yangquan</t>
+        </is>
       </c>
     </row>
     <row r="155">
@@ -1677,6 +3161,16 @@
       <c r="B155" t="n">
         <v>0</v>
       </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Yanshan</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -1685,6 +3179,16 @@
       <c r="B156" t="n">
         <v>0</v>
       </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Yanshi</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -1693,6 +3197,16 @@
       <c r="B157" t="n">
         <v>0</v>
       </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Yicheng</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -1701,13 +3215,33 @@
       <c r="B158" t="n">
         <v>0</v>
       </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Yichuan</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Yingze</t>
+        </is>
       </c>
     </row>
     <row r="160">
@@ -1717,6 +3251,16 @@
       <c r="B160" t="n">
         <v>0</v>
       </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Yiyang</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -1725,6 +3269,16 @@
       <c r="B161" t="n">
         <v>0</v>
       </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Yizhou</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -1732,6 +3286,250 @@
       </c>
       <c r="B162" t="n">
         <v>0</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Yongning</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Yu</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Yuanping</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Yuanqu</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Yuzhou</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Zhangqiu</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Zhenba</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Zheng'an</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Zhijin</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Zhongyang</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Zibo</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Zouwu</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Zunyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Zuoquan</t>
+        </is>
       </c>
     </row>
   </sheetData>
